--- a/CustomLocalization/Localization/RogueTech/RU/fp_tukayyidRT/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/fp_tukayyidRT/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="839">
   <si>
     <t>c_fp_tukayyid_CDS_mission1.contractName</t>
   </si>
@@ -418,7 +418,7 @@
     <t>As expected, we have multiple incoming {TEAM_TAR.FactionDef.Demonym} units.</t>
   </si>
   <si>
-    <t>As expected, we have multiple incoming {TEAM_TAR.FactionDef.Name} units.</t>
+    <t>Как и ожидалось, приближается множество юнитов {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>c_fp_tukayyid_CGB_mission3.dialogueList0.dialogueContent2.words</t>
@@ -448,9 +448,7 @@
     <t>c_fp_tukayyid_CGB_mission3.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
----
-Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -459,9 +457,7 @@
     <t>c_fp_tukayyid_CGB_mission3.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.
----
-Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
+    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
   </si>
   <si>
     <t>Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.</t>
@@ -482,9 +478,7 @@
     <t>c_fp_tukayyid_CGB_mission3.dialogueList8.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercenary Commander, we've received word of the assault on your position. Reinforcements are incoming, they are about halfway there. Maintain position and you will be relieved and reinforced shortly.
----
-Mercenary Commander, we've received word of the assault on your position. Reinforcements are incoming, they are about halfway there. Maintain position and you will be relieved and reinforced shortly. </t>
+    <t xml:space="preserve">Mercenary Commander, we've received word of the assault on your position. Reinforcements are incoming, they are about halfway there. Maintain position and you will be relieved and reinforced shortly. </t>
   </si>
   <si>
     <t>Mercenary Commander, we've received word of the assault on your position. Reinforcements are incoming, they are about halfway there. Maintain position and you will be relieved and reinforced shortly.</t>
@@ -1072,9 +1066,7 @@
     <t>c_fp_tukayyid_CJF_mission4.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased.
----
-Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
+    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
   </si>
   <si>
     <t>Readings indicate the ambushing units are out of commission. The employer will be pleased.</t>
@@ -1326,6 +1318,9 @@
     <t>c_fp_tukayyid_CNC_mission3.shortDescription</t>
   </si>
   <si>
+    <t xml:space="preserve">ComStar is planning a counter-attack against Clan Nova Cat's forces near the Losiije lake.  They will throw everything they have against Nova Cats, including Joje city garrison.</t>
+  </si>
+  <si>
     <t>ComStar is planning a counter-attack against Clan Nova Cat's forces near the Losiije lake. They will throw everything they have against Nova Cats, including Joje city garrison.</t>
   </si>
   <si>
@@ -1497,9 +1492,7 @@
     <t>c_fp_tukayyid_CSJ_mission3.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized.
----
-That's got it, keep firing on those targets until they are neutralized. </t>
+    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized. </t>
   </si>
   <si>
     <t>That's got it, keep firing on those targets until they are neutralized.</t>
@@ -1520,9 +1513,7 @@
     <t>c_fp_tukayyid_CSJ_mission3.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here.
----
-One down. Keep engaging those threats and we'll be out of here. </t>
+    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here. </t>
   </si>
   <si>
     <t>One down. Keep engaging those threats and we'll be out of here.</t>
@@ -2562,7 +2553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2578,7 +2569,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2877,16 +2869,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C619"/>
+  <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C619"/>
+    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="81.7109375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2899,6 +2892,9 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2910,6 +2906,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2921,6 +2920,9 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2932,6 +2934,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2943,6 +2948,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2954,6 +2962,9 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2965,6 +2976,9 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -2976,6 +2990,9 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2987,6 +3004,9 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2998,6 +3018,9 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -3009,6 +3032,9 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -3020,6 +3046,9 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3031,6 +3060,9 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3042,6 +3074,9 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3053,6 +3088,9 @@
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -3064,6 +3102,9 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -3075,6 +3116,9 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -3086,6 +3130,9 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -3097,6 +3144,9 @@
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -3108,6 +3158,9 @@
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -3119,6 +3172,9 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -3130,6 +3186,9 @@
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -3141,6 +3200,9 @@
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -3152,6 +3214,9 @@
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -3163,6 +3228,9 @@
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -3174,6 +3242,9 @@
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -3185,6 +3256,9 @@
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -3196,6 +3270,9 @@
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -3207,6 +3284,9 @@
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -3218,6 +3298,9 @@
       <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -3229,6 +3312,9 @@
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -3240,6 +3326,9 @@
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -3251,6 +3340,9 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -3262,6 +3354,9 @@
       <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -3273,6 +3368,9 @@
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -3284,6 +3382,9 @@
       <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -3295,6 +3396,9 @@
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -3306,6 +3410,9 @@
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -3317,6 +3424,9 @@
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -3328,6 +3438,9 @@
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -3339,6 +3452,9 @@
       <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -3350,6 +3466,9 @@
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -3361,6 +3480,9 @@
       <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -3372,6 +3494,9 @@
       <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -3383,6 +3508,9 @@
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -3394,6 +3522,9 @@
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -3405,6 +3536,9 @@
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3416,6 +3550,9 @@
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -3427,6 +3564,9 @@
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -3438,6 +3578,9 @@
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -3449,6 +3592,9 @@
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -3460,6 +3606,9 @@
       <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -3471,6 +3620,9 @@
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -3482,6 +3634,9 @@
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -3493,6 +3648,9 @@
       <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -3504,6 +3662,9 @@
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -3515,6 +3676,9 @@
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -3526,6 +3690,9 @@
       <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -3537,6 +3704,9 @@
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -3548,6 +3718,9 @@
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -3559,6 +3732,9 @@
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -3570,6 +3746,9 @@
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -3581,6 +3760,9 @@
       <c r="C63" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E63" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -3592,6 +3774,9 @@
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -3603,6 +3788,9 @@
       <c r="C65" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -3614,6 +3802,9 @@
       <c r="C66" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -3625,6 +3816,9 @@
       <c r="C67" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E67" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -3636,6 +3830,9 @@
       <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -3647,6 +3844,9 @@
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -3658,6 +3858,9 @@
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -3669,6 +3872,9 @@
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -3680,6 +3886,9 @@
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -3691,6 +3900,9 @@
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -3702,6 +3914,9 @@
       <c r="C74" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -3713,6 +3928,9 @@
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -3724,6 +3942,9 @@
       <c r="C76" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -3735,6 +3956,9 @@
       <c r="C77" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E77" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -3746,6 +3970,9 @@
       <c r="C78" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -3757,6 +3984,9 @@
       <c r="C79" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -3768,6 +3998,9 @@
       <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -3779,6 +4012,9 @@
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -3790,6 +4026,9 @@
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E82" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -3801,6 +4040,9 @@
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E83" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -3812,6 +4054,9 @@
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E84" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -3823,6 +4068,9 @@
       <c r="C85" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E85" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -3834,6 +4082,9 @@
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -3845,6 +4096,9 @@
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -3856,6 +4110,9 @@
       <c r="C88" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
@@ -3867,6 +4124,9 @@
       <c r="C89" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
@@ -3878,6 +4138,9 @@
       <c r="C90" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E90" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
@@ -3889,6 +4152,9 @@
       <c r="C91" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
@@ -3900,6 +4166,9 @@
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
@@ -3911,6 +4180,9 @@
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E93" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
@@ -3922,6 +4194,9 @@
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
@@ -3933,6 +4208,9 @@
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E95" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
@@ -3944,6 +4222,9 @@
       <c r="C96" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -3955,6 +4236,9 @@
       <c r="C97" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E97" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -3966,6 +4250,9 @@
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E98" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -3977,6 +4264,9 @@
       <c r="C99" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="E99" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -3988,6 +4278,9 @@
       <c r="C100" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E100" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
@@ -3999,6 +4292,9 @@
       <c r="C101" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -4010,6 +4306,9 @@
       <c r="C102" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E102" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -4021,6 +4320,9 @@
       <c r="C103" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -4032,6 +4334,9 @@
       <c r="C104" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E104" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
@@ -4043,6 +4348,9 @@
       <c r="C105" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E105" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
@@ -4054,27 +4362,36 @@
       <c r="C106" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="107" s="3" customFormat="1">
-      <c r="A107" s="3" t="s">
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="108" s="3" customFormat="1">
-      <c r="A108" s="3" t="s">
+      <c r="E107" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="E108" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="109">
@@ -4087,6 +4404,9 @@
       <c r="C109" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E109" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -4098,16 +4418,22 @@
       <c r="C110" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="111" s="3" customFormat="1">
-      <c r="A111" s="3" t="s">
+      <c r="E110" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="E111" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="112">
@@ -4120,6 +4446,9 @@
       <c r="C112" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E112" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
@@ -4131,6 +4460,9 @@
       <c r="C113" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E113" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
@@ -4142,6 +4474,9 @@
       <c r="C114" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E114" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
@@ -4153,6 +4488,9 @@
       <c r="C115" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E115" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
@@ -4164,6 +4502,9 @@
       <c r="C116" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -4175,6 +4516,9 @@
       <c r="C117" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="E117" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
@@ -4186,6 +4530,9 @@
       <c r="C118" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="E118" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
@@ -4197,6 +4544,9 @@
       <c r="C119" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E119" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
@@ -4208,6 +4558,9 @@
       <c r="C120" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E120" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -4219,6 +4572,9 @@
       <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E121" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
@@ -4230,6 +4586,9 @@
       <c r="C122" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E122" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
@@ -4241,6 +4600,9 @@
       <c r="C123" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E123" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
@@ -4252,6 +4614,9 @@
       <c r="C124" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E124" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
@@ -4263,6 +4628,9 @@
       <c r="C125" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E125" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
@@ -4274,6 +4642,9 @@
       <c r="C126" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E126" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
@@ -4285,6 +4656,9 @@
       <c r="C127" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="E127" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
@@ -4296,6 +4670,9 @@
       <c r="C128" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E128" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
@@ -4307,6 +4684,9 @@
       <c r="C129" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E129" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
@@ -4318,6 +4698,9 @@
       <c r="C130" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="E130" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -4329,6 +4712,9 @@
       <c r="C131" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="E131" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -4340,6 +4726,9 @@
       <c r="C132" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="E132" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
@@ -4351,6 +4740,9 @@
       <c r="C133" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="E133" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
@@ -4362,6 +4754,9 @@
       <c r="C134" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E134" s="2">
+        <v>134</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
@@ -4373,6 +4768,9 @@
       <c r="C135" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="E135" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
@@ -4384,6 +4782,9 @@
       <c r="C136" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="E136" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
@@ -4395,6 +4796,9 @@
       <c r="C137" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E137" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
@@ -4406,6 +4810,9 @@
       <c r="C138" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E138" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
@@ -4417,6 +4824,9 @@
       <c r="C139" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E139" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
@@ -4428,6 +4838,9 @@
       <c r="C140" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="E140" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
@@ -4439,6 +4852,9 @@
       <c r="C141" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E141" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
@@ -4450,6 +4866,9 @@
       <c r="C142" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="E142" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
@@ -4461,6 +4880,9 @@
       <c r="C143" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E143" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
@@ -4472,6 +4894,9 @@
       <c r="C144" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="E144" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
@@ -4483,6 +4908,9 @@
       <c r="C145" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E145" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
@@ -4494,6 +4922,9 @@
       <c r="C146" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E146" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
@@ -4505,6 +4936,9 @@
       <c r="C147" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="E147" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
@@ -4516,6 +4950,9 @@
       <c r="C148" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="E148" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
@@ -4527,6 +4964,9 @@
       <c r="C149" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E149" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -4538,6 +4978,9 @@
       <c r="C150" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="E150" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
@@ -4549,6 +4992,9 @@
       <c r="C151" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E151" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -4560,6 +5006,9 @@
       <c r="C152" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E152" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
@@ -4571,6 +5020,9 @@
       <c r="C153" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="E153" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
@@ -4582,6 +5034,9 @@
       <c r="C154" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="E154" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
@@ -4593,6 +5048,9 @@
       <c r="C155" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E155" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
@@ -4604,6 +5062,9 @@
       <c r="C156" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E156" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
@@ -4615,6 +5076,9 @@
       <c r="C157" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="E157" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
@@ -4626,6 +5090,9 @@
       <c r="C158" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="E158" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
@@ -4637,6 +5104,9 @@
       <c r="C159" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="E159" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
@@ -4648,6 +5118,9 @@
       <c r="C160" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
@@ -4659,6 +5132,9 @@
       <c r="C161" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E161" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
@@ -4670,6 +5146,9 @@
       <c r="C162" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="E162" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
@@ -4681,6 +5160,9 @@
       <c r="C163" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="E163" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
@@ -4692,6 +5174,9 @@
       <c r="C164" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E164" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
@@ -4703,6 +5188,9 @@
       <c r="C165" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E165" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
@@ -4714,6 +5202,9 @@
       <c r="C166" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E166" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
@@ -4725,6 +5216,9 @@
       <c r="C167" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="E167" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
@@ -4736,6 +5230,9 @@
       <c r="C168" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E168" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
@@ -4747,6 +5244,9 @@
       <c r="C169" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="E169" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
@@ -4758,6 +5258,9 @@
       <c r="C170" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E170" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
@@ -4769,6 +5272,9 @@
       <c r="C171" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="E171" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
@@ -4780,6 +5286,9 @@
       <c r="C172" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E172" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
@@ -4791,6 +5300,9 @@
       <c r="C173" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E173" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
@@ -4802,6 +5314,9 @@
       <c r="C174" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="E174" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4813,6 +5328,9 @@
       <c r="C175" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="E175" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -4824,6 +5342,9 @@
       <c r="C176" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E176" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -4835,6 +5356,9 @@
       <c r="C177" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="E177" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -4846,6 +5370,9 @@
       <c r="C178" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E178" s="2">
+        <v>178</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
@@ -4857,6 +5384,9 @@
       <c r="C179" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E179" s="2">
+        <v>179</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
@@ -4868,6 +5398,9 @@
       <c r="C180" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="E180" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
@@ -4879,6 +5412,9 @@
       <c r="C181" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="E181" s="2">
+        <v>181</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
@@ -4890,6 +5426,9 @@
       <c r="C182" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E182" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
@@ -4901,6 +5440,9 @@
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E183" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
@@ -4912,6 +5454,9 @@
       <c r="C184" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E184" s="2">
+        <v>184</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
@@ -4923,6 +5468,9 @@
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E185" s="2">
+        <v>185</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
@@ -4934,6 +5482,9 @@
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E186" s="2">
+        <v>186</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -4945,6 +5496,9 @@
       <c r="C187" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E187" s="2">
+        <v>187</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
@@ -4956,6 +5510,9 @@
       <c r="C188" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E188" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
@@ -4967,6 +5524,9 @@
       <c r="C189" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E189" s="2">
+        <v>189</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
@@ -4978,6 +5538,9 @@
       <c r="C190" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E190" s="2">
+        <v>190</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
@@ -4989,6 +5552,9 @@
       <c r="C191" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="E191" s="2">
+        <v>191</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -5000,6 +5566,9 @@
       <c r="C192" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="E192" s="2">
+        <v>192</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
@@ -5011,6 +5580,9 @@
       <c r="C193" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E193" s="2">
+        <v>193</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
@@ -5022,6 +5594,9 @@
       <c r="C194" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E194" s="2">
+        <v>194</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
@@ -5033,6 +5608,9 @@
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E195" s="2">
+        <v>195</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
@@ -5044,6 +5622,9 @@
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E196" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
@@ -5055,6 +5636,9 @@
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E197" s="2">
+        <v>197</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
@@ -5066,6 +5650,9 @@
       <c r="C198" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E198" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
@@ -5077,6 +5664,9 @@
       <c r="C199" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="E199" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
@@ -5088,6 +5678,9 @@
       <c r="C200" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E200" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
@@ -5099,6 +5692,9 @@
       <c r="C201" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E201" s="2">
+        <v>201</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
@@ -5110,6 +5706,9 @@
       <c r="C202" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="E202" s="2">
+        <v>202</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
@@ -5121,6 +5720,9 @@
       <c r="C203" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="E203" s="2">
+        <v>203</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
@@ -5132,6 +5734,9 @@
       <c r="C204" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E204" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
@@ -5143,6 +5748,9 @@
       <c r="C205" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E205" s="2">
+        <v>205</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
@@ -5154,6 +5762,9 @@
       <c r="C206" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E206" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
@@ -5165,6 +5776,9 @@
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E207" s="2">
+        <v>207</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
@@ -5176,6 +5790,9 @@
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E208" s="2">
+        <v>208</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
@@ -5187,6 +5804,9 @@
       <c r="C209" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E209" s="2">
+        <v>209</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
@@ -5198,6 +5818,9 @@
       <c r="C210" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="E210" s="2">
+        <v>210</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
@@ -5209,6 +5832,9 @@
       <c r="C211" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E211" s="2">
+        <v>211</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
@@ -5220,6 +5846,9 @@
       <c r="C212" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E212" s="2">
+        <v>212</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
@@ -5231,6 +5860,9 @@
       <c r="C213" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="E213" s="2">
+        <v>213</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
@@ -5242,6 +5874,9 @@
       <c r="C214" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E214" s="2">
+        <v>214</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
@@ -5253,6 +5888,9 @@
       <c r="C215" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E215" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
@@ -5264,6 +5902,9 @@
       <c r="C216" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="E216" s="2">
+        <v>216</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
@@ -5275,6 +5916,9 @@
       <c r="C217" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E217" s="2">
+        <v>217</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
@@ -5286,6 +5930,9 @@
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E218" s="2">
+        <v>218</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
@@ -5297,6 +5944,9 @@
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E219" s="2">
+        <v>219</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
@@ -5308,6 +5958,9 @@
       <c r="C220" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E220" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
@@ -5319,6 +5972,9 @@
       <c r="C221" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E221" s="2">
+        <v>221</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
@@ -5330,6 +5986,9 @@
       <c r="C222" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E222" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
@@ -5341,6 +6000,9 @@
       <c r="C223" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E223" s="2">
+        <v>223</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
@@ -5352,6 +6014,9 @@
       <c r="C224" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="E224" s="2">
+        <v>224</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
@@ -5363,6 +6028,9 @@
       <c r="C225" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E225" s="2">
+        <v>225</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
@@ -5374,6 +6042,9 @@
       <c r="C226" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E226" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
@@ -5385,6 +6056,9 @@
       <c r="C227" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="E227" s="2">
+        <v>227</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
@@ -5396,6 +6070,9 @@
       <c r="C228" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E228" s="2">
+        <v>228</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
@@ -5407,6 +6084,9 @@
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E229" s="2">
+        <v>229</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
@@ -5418,6 +6098,9 @@
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E230" s="2">
+        <v>230</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
@@ -5429,6 +6112,9 @@
       <c r="C231" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E231" s="2">
+        <v>231</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
@@ -5440,6 +6126,9 @@
       <c r="C232" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E232" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
@@ -5451,6 +6140,9 @@
       <c r="C233" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E233" s="2">
+        <v>233</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
@@ -5462,6 +6154,9 @@
       <c r="C234" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E234" s="2">
+        <v>234</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
@@ -5473,6 +6168,9 @@
       <c r="C235" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="E235" s="2">
+        <v>235</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
@@ -5484,6 +6182,9 @@
       <c r="C236" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E236" s="2">
+        <v>236</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
@@ -5495,6 +6196,9 @@
       <c r="C237" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="E237" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
@@ -5506,6 +6210,9 @@
       <c r="C238" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="E238" s="2">
+        <v>238</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
@@ -5517,6 +6224,9 @@
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E239" s="2">
+        <v>239</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
@@ -5528,6 +6238,9 @@
       <c r="C240" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="E240" s="2">
+        <v>240</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
@@ -5539,6 +6252,9 @@
       <c r="C241" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="E241" s="2">
+        <v>241</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
@@ -5550,16 +6266,22 @@
       <c r="C242" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="243" s="3" customFormat="1">
-      <c r="A243" s="3" t="s">
+      <c r="E242" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>351</v>
+      </c>
+      <c r="E243" s="2">
+        <v>243</v>
       </c>
     </row>
     <row r="244">
@@ -5572,6 +6294,9 @@
       <c r="C244" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E244" s="2">
+        <v>244</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
@@ -5583,6 +6308,9 @@
       <c r="C245" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="E245" s="2">
+        <v>245</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
@@ -5594,6 +6322,9 @@
       <c r="C246" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="E246" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
@@ -5605,6 +6336,9 @@
       <c r="C247" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E247" s="2">
+        <v>247</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
@@ -5616,6 +6350,9 @@
       <c r="C248" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="E248" s="2">
+        <v>248</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
@@ -5627,6 +6364,9 @@
       <c r="C249" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="E249" s="2">
+        <v>249</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
@@ -5638,6 +6378,9 @@
       <c r="C250" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E250" s="2">
+        <v>250</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
@@ -5649,6 +6392,9 @@
       <c r="C251" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E251" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
@@ -5660,6 +6406,9 @@
       <c r="C252" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="E252" s="2">
+        <v>252</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
@@ -5671,6 +6420,9 @@
       <c r="C253" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="E253" s="2">
+        <v>253</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
@@ -5682,6 +6434,9 @@
       <c r="C254" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="E254" s="2">
+        <v>254</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
@@ -5693,6 +6448,9 @@
       <c r="C255" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="E255" s="2">
+        <v>255</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
@@ -5704,6 +6462,9 @@
       <c r="C256" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="E256" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
@@ -5715,6 +6476,9 @@
       <c r="C257" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E257" s="2">
+        <v>257</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
@@ -5726,6 +6490,9 @@
       <c r="C258" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="E258" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
@@ -5737,6 +6504,9 @@
       <c r="C259" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E259" s="2">
+        <v>259</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
@@ -5748,6 +6518,9 @@
       <c r="C260" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="E260" s="2">
+        <v>260</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
@@ -5759,6 +6532,9 @@
       <c r="C261" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E261" s="2">
+        <v>261</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
@@ -5770,6 +6546,9 @@
       <c r="C262" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="E262" s="2">
+        <v>262</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
@@ -5781,6 +6560,9 @@
       <c r="C263" s="2" t="s">
         <v>393</v>
       </c>
+      <c r="E263" s="2">
+        <v>263</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
@@ -5792,6 +6574,9 @@
       <c r="C264" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E264" s="2">
+        <v>264</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
@@ -5803,6 +6588,9 @@
       <c r="C265" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E265" s="2">
+        <v>265</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
@@ -5814,6 +6602,9 @@
       <c r="C266" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E266" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
@@ -5825,6 +6616,9 @@
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E267" s="2">
+        <v>267</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
@@ -5836,6 +6630,9 @@
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E268" s="2">
+        <v>268</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
@@ -5847,6 +6644,9 @@
       <c r="C269" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E269" s="2">
+        <v>269</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
@@ -5858,6 +6658,9 @@
       <c r="C270" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="E270" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
@@ -5869,6 +6672,9 @@
       <c r="C271" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E271" s="2">
+        <v>271</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
@@ -5880,6 +6686,9 @@
       <c r="C272" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E272" s="2">
+        <v>272</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
@@ -5891,6 +6700,9 @@
       <c r="C273" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="E273" s="2">
+        <v>273</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
@@ -5902,6 +6714,9 @@
       <c r="C274" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="E274" s="2">
+        <v>274</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
@@ -5913,6 +6728,9 @@
       <c r="C275" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E275" s="2">
+        <v>275</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
@@ -5924,6 +6742,9 @@
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E276" s="2">
+        <v>276</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
@@ -5935,6 +6756,9 @@
       <c r="C277" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E277" s="2">
+        <v>277</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
@@ -5946,6 +6770,9 @@
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E278" s="2">
+        <v>278</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
@@ -5957,6 +6784,9 @@
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E279" s="2">
+        <v>279</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
@@ -5968,6 +6798,9 @@
       <c r="C280" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E280" s="2">
+        <v>280</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
@@ -5979,6 +6812,9 @@
       <c r="C281" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="E281" s="2">
+        <v>281</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
@@ -5990,6 +6826,9 @@
       <c r="C282" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E282" s="2">
+        <v>282</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
@@ -6001,6 +6840,9 @@
       <c r="C283" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E283" s="2">
+        <v>283</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
@@ -6012,6 +6854,9 @@
       <c r="C284" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="E284" s="2">
+        <v>284</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
@@ -6023,6 +6868,9 @@
       <c r="C285" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="E285" s="2">
+        <v>285</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
@@ -6034,6 +6882,9 @@
       <c r="C286" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E286" s="2">
+        <v>286</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
@@ -6045,6 +6896,9 @@
       <c r="C287" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E287" s="2">
+        <v>287</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
@@ -6056,6 +6910,9 @@
       <c r="C288" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E288" s="2">
+        <v>288</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
@@ -6067,6 +6924,9 @@
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E289" s="2">
+        <v>289</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
@@ -6078,197 +6938,251 @@
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E290" s="2">
+        <v>290</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E291" s="2">
+        <v>291</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="3" t="s">
         <v>430</v>
       </c>
+      <c r="E292" s="2">
+        <v>292</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E293" s="2">
+        <v>293</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
+      <c r="E294" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" s="4" customFormat="1">
+      <c r="A295" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E295" s="4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E296" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E297" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E303" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E304" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" s="4" customFormat="1">
+      <c r="A306" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
+      <c r="C306" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>434</v>
+      <c r="E306" s="4">
+        <v>306</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="E307" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>3</v>
@@ -6276,10 +7190,13 @@
       <c r="C308" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E308" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>5</v>
@@ -6287,10 +7204,13 @@
       <c r="C309" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E309" s="2">
+        <v>309</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>7</v>
@@ -6298,10 +7218,13 @@
       <c r="C310" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E310" s="2">
+        <v>310</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>9</v>
@@ -6309,10 +7232,13 @@
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E311" s="2">
+        <v>311</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>11</v>
@@ -6320,10 +7246,13 @@
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E312" s="2">
+        <v>312</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>13</v>
@@ -6331,21 +7260,27 @@
       <c r="C313" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E313" s="2">
+        <v>313</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="E314" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>18</v>
@@ -6353,10 +7288,13 @@
       <c r="C315" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E315" s="2">
+        <v>315</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>20</v>
@@ -6364,32 +7302,41 @@
       <c r="C316" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E316" s="2">
+        <v>316</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="E317" s="2">
+        <v>317</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="E318" s="2">
+        <v>318</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>3</v>
@@ -6397,10 +7344,13 @@
       <c r="C319" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E319" s="2">
+        <v>319</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>5</v>
@@ -6408,10 +7358,13 @@
       <c r="C320" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E320" s="2">
+        <v>320</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>7</v>
@@ -6419,10 +7372,13 @@
       <c r="C321" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E321" s="2">
+        <v>321</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>9</v>
@@ -6430,10 +7386,13 @@
       <c r="C322" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E322" s="2">
+        <v>322</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>11</v>
@@ -6441,10 +7400,13 @@
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E323" s="2">
+        <v>323</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>13</v>
@@ -6452,21 +7414,27 @@
       <c r="C324" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E324" s="2">
+        <v>324</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="E325" s="2">
+        <v>325</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>18</v>
@@ -6474,10 +7442,13 @@
       <c r="C326" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E326" s="2">
+        <v>326</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>20</v>
@@ -6485,230 +7456,293 @@
       <c r="C327" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E327" s="2">
+        <v>327</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E328" s="2">
+        <v>328</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="E329" s="2">
+        <v>329</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="E330" s="2">
+        <v>330</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="E331" s="2">
+        <v>331</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="E332" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="E333" s="2">
+        <v>333</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="E334" s="2">
+        <v>334</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E335" s="2">
+        <v>335</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="337" s="3" customFormat="1">
-      <c r="A337" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="E336" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="B337" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C337" s="3" t="s">
         <v>492</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E337" s="2">
+        <v>337</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="E338" s="2">
+        <v>338</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="340" s="3" customFormat="1">
-      <c r="A340" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="E339" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="B340" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C340" s="3" t="s">
         <v>499</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E340" s="2">
+        <v>340</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E341" s="2">
+        <v>341</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="E342" s="2">
+        <v>342</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="E343" s="2">
+        <v>343</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="E344" s="2">
+        <v>344</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="E345" s="2">
+        <v>345</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="E346" s="2">
+        <v>346</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="E347" s="2">
+        <v>347</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>379</v>
@@ -6716,241 +7750,307 @@
       <c r="C348" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E348" s="2">
+        <v>348</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="E349" s="2">
+        <v>349</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="E350" s="2">
+        <v>350</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="E351" s="2">
+        <v>351</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="E352" s="2">
+        <v>352</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="E353" s="2">
+        <v>353</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="E354" s="2">
+        <v>354</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="E355" s="2">
+        <v>355</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="E356" s="2">
+        <v>356</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E357" s="2">
+        <v>357</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="359" s="3" customFormat="1">
-      <c r="A359" s="3" t="s">
-        <v>527</v>
+        <v>490</v>
+      </c>
+      <c r="E358" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C359" s="3" t="s">
         <v>492</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E359" s="2">
+        <v>359</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="E360" s="2">
+        <v>360</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="362" s="3" customFormat="1">
-      <c r="A362" s="3" t="s">
-        <v>530</v>
+        <v>497</v>
+      </c>
+      <c r="E361" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C362" s="3" t="s">
         <v>499</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E362" s="2">
+        <v>362</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E363" s="2">
+        <v>363</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="E364" s="2">
+        <v>364</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="E365" s="2">
+        <v>365</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="E366" s="2">
+        <v>366</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="E367" s="2">
+        <v>367</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="E368" s="2">
+        <v>368</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="E369" s="2">
+        <v>369</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>379</v>
@@ -6958,54 +8058,69 @@
       <c r="C370" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E370" s="2">
+        <v>370</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="E371" s="2">
+        <v>371</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="E372" s="2">
+        <v>372</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="E373" s="2">
+        <v>373</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="E374" s="2">
+        <v>374</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>133</v>
@@ -7013,10 +8128,13 @@
       <c r="C375" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E375" s="2">
+        <v>375</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>136</v>
@@ -7024,21 +8142,27 @@
       <c r="C376" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E376" s="2">
+        <v>376</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="E377" s="2">
+        <v>377</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>140</v>
@@ -7046,10 +8170,13 @@
       <c r="C378" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E378" s="2">
+        <v>378</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>142</v>
@@ -7057,32 +8184,41 @@
       <c r="C379" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="380" s="3" customFormat="1">
-      <c r="A380" s="3" t="s">
-        <v>551</v>
+      <c r="E379" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C380" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="381" s="3" customFormat="1">
-      <c r="A381" s="3" t="s">
-        <v>552</v>
+      <c r="E380" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="E381" s="2">
+        <v>381</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>150</v>
@@ -7090,10 +8226,13 @@
       <c r="C382" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E382" s="2">
+        <v>382</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>152</v>
@@ -7101,21 +8240,27 @@
       <c r="C383" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="384" s="3" customFormat="1">
-      <c r="A384" s="3" t="s">
-        <v>555</v>
+      <c r="E383" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="E384" s="2">
+        <v>384</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>157</v>
@@ -7123,10 +8268,13 @@
       <c r="C385" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E385" s="2">
+        <v>385</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>159</v>
@@ -7134,10 +8282,13 @@
       <c r="C386" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E386" s="2">
+        <v>386</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>161</v>
@@ -7145,10 +8296,13 @@
       <c r="C387" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E387" s="2">
+        <v>387</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>164</v>
@@ -7156,43 +8310,55 @@
       <c r="C388" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E388" s="2">
+        <v>388</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="E389" s="2">
+        <v>389</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="E390" s="2">
+        <v>390</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="E391" s="2">
+        <v>391</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>173</v>
@@ -7200,10 +8366,13 @@
       <c r="C392" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E392" s="2">
+        <v>392</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>175</v>
@@ -7211,10 +8380,13 @@
       <c r="C393" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E393" s="2">
+        <v>393</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>177</v>
@@ -7222,10 +8394,13 @@
       <c r="C394" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E394" s="2">
+        <v>394</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>179</v>
@@ -7233,10 +8408,13 @@
       <c r="C395" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E395" s="2">
+        <v>395</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>182</v>
@@ -7244,10 +8422,13 @@
       <c r="C396" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E396" s="2">
+        <v>396</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>182</v>
@@ -7255,10 +8436,13 @@
       <c r="C397" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E397" s="2">
+        <v>397</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>185</v>
@@ -7266,43 +8450,55 @@
       <c r="C398" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E398" s="2">
+        <v>398</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="E399" s="2">
+        <v>399</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="E400" s="2">
+        <v>400</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="E401" s="2">
+        <v>401</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>133</v>
@@ -7310,10 +8506,13 @@
       <c r="C402" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E402" s="2">
+        <v>402</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>136</v>
@@ -7321,21 +8520,27 @@
       <c r="C403" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E403" s="2">
+        <v>403</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="E404" s="2">
+        <v>404</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>140</v>
@@ -7343,10 +8548,13 @@
       <c r="C405" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E405" s="2">
+        <v>405</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>142</v>
@@ -7354,32 +8562,41 @@
       <c r="C406" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="407" s="3" customFormat="1">
-      <c r="A407" s="3" t="s">
-        <v>582</v>
+      <c r="E406" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="408" s="3" customFormat="1">
-      <c r="A408" s="3" t="s">
-        <v>583</v>
+      <c r="E407" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C408" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="E408" s="2">
+        <v>408</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>150</v>
@@ -7387,10 +8604,13 @@
       <c r="C409" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E409" s="2">
+        <v>409</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>152</v>
@@ -7398,21 +8618,27 @@
       <c r="C410" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="411" s="3" customFormat="1">
-      <c r="A411" s="3" t="s">
-        <v>586</v>
+      <c r="E410" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C411" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="E411" s="2">
+        <v>411</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>157</v>
@@ -7420,10 +8646,13 @@
       <c r="C412" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E412" s="2">
+        <v>412</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>159</v>
@@ -7431,10 +8660,13 @@
       <c r="C413" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E413" s="2">
+        <v>413</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>161</v>
@@ -7442,10 +8674,13 @@
       <c r="C414" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E414" s="2">
+        <v>414</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>164</v>
@@ -7453,43 +8688,55 @@
       <c r="C415" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E415" s="2">
+        <v>415</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="E416" s="2">
+        <v>416</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="E417" s="2">
+        <v>417</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="E418" s="2">
+        <v>418</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>173</v>
@@ -7497,10 +8744,13 @@
       <c r="C419" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E419" s="2">
+        <v>419</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>175</v>
@@ -7508,10 +8758,13 @@
       <c r="C420" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E420" s="2">
+        <v>420</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>177</v>
@@ -7519,10 +8772,13 @@
       <c r="C421" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E421" s="2">
+        <v>421</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>179</v>
@@ -7530,10 +8786,13 @@
       <c r="C422" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E422" s="2">
+        <v>422</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>182</v>
@@ -7541,10 +8800,13 @@
       <c r="C423" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E423" s="2">
+        <v>423</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>182</v>
@@ -7552,10 +8814,13 @@
       <c r="C424" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E424" s="2">
+        <v>424</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>185</v>
@@ -7563,32 +8828,41 @@
       <c r="C425" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E425" s="2">
+        <v>425</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="E426" s="2">
+        <v>426</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+      <c r="E427" s="2">
+        <v>427</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>3</v>
@@ -7596,10 +8870,13 @@
       <c r="C428" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E428" s="2">
+        <v>428</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>5</v>
@@ -7607,10 +8884,13 @@
       <c r="C429" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E429" s="2">
+        <v>429</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>7</v>
@@ -7618,10 +8898,13 @@
       <c r="C430" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E430" s="2">
+        <v>430</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>9</v>
@@ -7629,10 +8912,13 @@
       <c r="C431" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E431" s="2">
+        <v>431</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>11</v>
@@ -7640,10 +8926,13 @@
       <c r="C432" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E432" s="2">
+        <v>432</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>13</v>
@@ -7651,21 +8940,27 @@
       <c r="C433" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E433" s="2">
+        <v>433</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="E434" s="2">
+        <v>434</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>18</v>
@@ -7673,10 +8968,13 @@
       <c r="C435" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E435" s="2">
+        <v>435</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>20</v>
@@ -7684,230 +8982,293 @@
       <c r="C436" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E436" s="2">
+        <v>436</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="E437" s="2">
+        <v>437</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
+      </c>
+      <c r="E438" s="2">
+        <v>438</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="E439" s="2">
+        <v>439</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="E440" s="2">
+        <v>440</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="E441" s="2">
+        <v>441</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="E442" s="2">
+        <v>442</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="E443" s="2">
+        <v>443</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E444" s="2">
+        <v>444</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="446" s="3" customFormat="1">
-      <c r="A446" s="3" t="s">
         <v>626</v>
       </c>
+      <c r="E445" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="B446" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C446" s="3" t="s">
         <v>492</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E446" s="2">
+        <v>446</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="E447" s="2">
+        <v>447</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="449" s="3" customFormat="1">
-      <c r="A449" s="3" t="s">
         <v>630</v>
       </c>
+      <c r="E448" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="B449" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C449" s="3" t="s">
         <v>499</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E449" s="2">
+        <v>449</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E450" s="2">
+        <v>450</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="E451" s="2">
+        <v>451</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="E452" s="2">
+        <v>452</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
+      </c>
+      <c r="E453" s="2">
+        <v>453</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="C454" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
+      </c>
+      <c r="E454" s="2">
+        <v>454</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="E455" s="2">
+        <v>455</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="E456" s="2">
+        <v>456</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>379</v>
@@ -7915,43 +9276,55 @@
       <c r="C457" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E457" s="2">
+        <v>457</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="E458" s="2">
+        <v>458</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="E459" s="2">
+        <v>459</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="E460" s="2">
+        <v>460</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>3</v>
@@ -7959,10 +9332,13 @@
       <c r="C461" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E461" s="2">
+        <v>461</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>5</v>
@@ -7970,10 +9346,13 @@
       <c r="C462" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E462" s="2">
+        <v>462</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>7</v>
@@ -7981,10 +9360,13 @@
       <c r="C463" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E463" s="2">
+        <v>463</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>9</v>
@@ -7992,10 +9374,13 @@
       <c r="C464" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E464" s="2">
+        <v>464</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>11</v>
@@ -8003,10 +9388,13 @@
       <c r="C465" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E465" s="2">
+        <v>465</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>13</v>
@@ -8014,21 +9402,27 @@
       <c r="C466" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E466" s="2">
+        <v>466</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+      <c r="E467" s="2">
+        <v>467</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>18</v>
@@ -8036,10 +9430,13 @@
       <c r="C468" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E468" s="2">
+        <v>468</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>20</v>
@@ -8047,32 +9444,41 @@
       <c r="C469" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E469" s="2">
+        <v>469</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="E470" s="2">
+        <v>470</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="E471" s="2">
+        <v>471</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>3</v>
@@ -8080,10 +9486,13 @@
       <c r="C472" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E472" s="2">
+        <v>472</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>5</v>
@@ -8091,10 +9500,13 @@
       <c r="C473" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E473" s="2">
+        <v>473</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>7</v>
@@ -8102,10 +9514,13 @@
       <c r="C474" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E474" s="2">
+        <v>474</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>9</v>
@@ -8113,10 +9528,13 @@
       <c r="C475" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E475" s="2">
+        <v>475</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>11</v>
@@ -8124,10 +9542,13 @@
       <c r="C476" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E476" s="2">
+        <v>476</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>13</v>
@@ -8135,21 +9556,27 @@
       <c r="C477" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E477" s="2">
+        <v>477</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+      <c r="E478" s="2">
+        <v>478</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>18</v>
@@ -8157,10 +9584,13 @@
       <c r="C479" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E479" s="2">
+        <v>479</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>20</v>
@@ -8168,32 +9598,41 @@
       <c r="C480" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E480" s="2">
+        <v>480</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="E481" s="2">
+        <v>481</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="E482" s="2">
+        <v>482</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>3</v>
@@ -8201,10 +9640,13 @@
       <c r="C483" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E483" s="2">
+        <v>483</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>5</v>
@@ -8212,10 +9654,13 @@
       <c r="C484" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E484" s="2">
+        <v>484</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>7</v>
@@ -8223,10 +9668,13 @@
       <c r="C485" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E485" s="2">
+        <v>485</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>9</v>
@@ -8234,10 +9682,13 @@
       <c r="C486" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E486" s="2">
+        <v>486</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>11</v>
@@ -8245,10 +9696,13 @@
       <c r="C487" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E487" s="2">
+        <v>487</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>13</v>
@@ -8256,21 +9710,27 @@
       <c r="C488" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E488" s="2">
+        <v>488</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="E489" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>18</v>
@@ -8278,10 +9738,13 @@
       <c r="C490" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E490" s="2">
+        <v>490</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>20</v>
@@ -8289,32 +9752,41 @@
       <c r="C491" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E491" s="2">
+        <v>491</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
+      </c>
+      <c r="E492" s="2">
+        <v>492</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="E493" s="2">
+        <v>493</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>3</v>
@@ -8322,10 +9794,13 @@
       <c r="C494" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E494" s="2">
+        <v>494</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>5</v>
@@ -8333,10 +9808,13 @@
       <c r="C495" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E495" s="2">
+        <v>495</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>7</v>
@@ -8344,10 +9822,13 @@
       <c r="C496" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E496" s="2">
+        <v>496</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>9</v>
@@ -8355,10 +9836,13 @@
       <c r="C497" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E497" s="2">
+        <v>497</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>11</v>
@@ -8366,10 +9850,13 @@
       <c r="C498" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E498" s="2">
+        <v>498</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>13</v>
@@ -8377,21 +9864,27 @@
       <c r="C499" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E499" s="2">
+        <v>499</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="E500" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>18</v>
@@ -8399,10 +9892,13 @@
       <c r="C501" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E501" s="2">
+        <v>501</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>20</v>
@@ -8410,32 +9906,41 @@
       <c r="C502" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E502" s="2">
+        <v>502</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
+      </c>
+      <c r="E503" s="2">
+        <v>503</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="E504" s="2">
+        <v>504</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>3</v>
@@ -8443,10 +9948,13 @@
       <c r="C505" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E505" s="2">
+        <v>505</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>5</v>
@@ -8454,10 +9962,13 @@
       <c r="C506" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E506" s="2">
+        <v>506</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>7</v>
@@ -8465,10 +9976,13 @@
       <c r="C507" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E507" s="2">
+        <v>507</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>9</v>
@@ -8476,10 +9990,13 @@
       <c r="C508" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E508" s="2">
+        <v>508</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>11</v>
@@ -8487,10 +10004,13 @@
       <c r="C509" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E509" s="2">
+        <v>509</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>13</v>
@@ -8498,21 +10018,27 @@
       <c r="C510" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E510" s="2">
+        <v>510</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="E511" s="2">
+        <v>511</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>18</v>
@@ -8520,10 +10046,13 @@
       <c r="C512" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E512" s="2">
+        <v>512</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>20</v>
@@ -8531,32 +10060,41 @@
       <c r="C513" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E513" s="2">
+        <v>513</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
+      </c>
+      <c r="E514" s="2">
+        <v>514</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="E515" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>3</v>
@@ -8564,10 +10102,13 @@
       <c r="C516" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E516" s="2">
+        <v>516</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>5</v>
@@ -8575,10 +10116,13 @@
       <c r="C517" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E517" s="2">
+        <v>517</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>7</v>
@@ -8586,10 +10130,13 @@
       <c r="C518" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E518" s="2">
+        <v>518</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>9</v>
@@ -8597,10 +10144,13 @@
       <c r="C519" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E519" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>11</v>
@@ -8608,10 +10158,13 @@
       <c r="C520" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E520" s="2">
+        <v>520</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>13</v>
@@ -8619,21 +10172,27 @@
       <c r="C521" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E521" s="2">
+        <v>521</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="E522" s="2">
+        <v>522</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>18</v>
@@ -8641,10 +10200,13 @@
       <c r="C523" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E523" s="2">
+        <v>523</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>20</v>
@@ -8652,32 +10214,41 @@
       <c r="C524" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E524" s="2">
+        <v>524</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="E525" s="2">
+        <v>525</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="E526" s="2">
+        <v>526</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>3</v>
@@ -8685,10 +10256,13 @@
       <c r="C527" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E527" s="2">
+        <v>527</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>5</v>
@@ -8696,10 +10270,13 @@
       <c r="C528" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E528" s="2">
+        <v>528</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>7</v>
@@ -8707,10 +10284,13 @@
       <c r="C529" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E529" s="2">
+        <v>529</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>9</v>
@@ -8718,10 +10298,13 @@
       <c r="C530" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E530" s="2">
+        <v>530</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>11</v>
@@ -8729,10 +10312,13 @@
       <c r="C531" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E531" s="2">
+        <v>531</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>13</v>
@@ -8740,21 +10326,27 @@
       <c r="C532" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E532" s="2">
+        <v>532</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="E533" s="2">
+        <v>533</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>18</v>
@@ -8762,10 +10354,13 @@
       <c r="C534" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E534" s="2">
+        <v>534</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>20</v>
@@ -8773,54 +10368,69 @@
       <c r="C535" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E535" s="2">
+        <v>535</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="E536" s="2">
+        <v>536</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
+      </c>
+      <c r="E537" s="2">
+        <v>537</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="E538" s="2">
+        <v>538</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="E539" s="2">
+        <v>539</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>7</v>
@@ -8828,10 +10438,13 @@
       <c r="C540" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E540" s="2">
+        <v>540</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>344</v>
@@ -8839,10 +10452,13 @@
       <c r="C541" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="E541" s="2">
+        <v>541</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>346</v>
@@ -8850,32 +10466,41 @@
       <c r="C542" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="E542" s="2">
+        <v>542</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="544" s="3" customFormat="1">
-      <c r="A544" s="3" t="s">
         <v>747</v>
+      </c>
+      <c r="E543" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C544" s="3" t="s">
+      <c r="C544" s="2" t="s">
         <v>351</v>
+      </c>
+      <c r="E544" s="2">
+        <v>544</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>353</v>
@@ -8883,10 +10508,13 @@
       <c r="C545" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E545" s="2">
+        <v>545</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>355</v>
@@ -8894,10 +10522,13 @@
       <c r="C546" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="E546" s="2">
+        <v>546</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>357</v>
@@ -8905,43 +10536,55 @@
       <c r="C547" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="E547" s="2">
+        <v>547</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="E548" s="2">
+        <v>548</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
+      </c>
+      <c r="E549" s="2">
+        <v>549</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
+      </c>
+      <c r="E550" s="2">
+        <v>550</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>365</v>
@@ -8949,10 +10592,13 @@
       <c r="C551" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E551" s="2">
+        <v>551</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>367</v>
@@ -8960,10 +10606,13 @@
       <c r="C552" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E552" s="2">
+        <v>552</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>369</v>
@@ -8971,21 +10620,27 @@
       <c r="C553" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="E553" s="2">
+        <v>553</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="E554" s="2">
+        <v>554</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>373</v>
@@ -8993,10 +10648,13 @@
       <c r="C555" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="E555" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>375</v>
@@ -9004,10 +10662,13 @@
       <c r="C556" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="E556" s="2">
+        <v>556</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>377</v>
@@ -9015,10 +10676,13 @@
       <c r="C557" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="E557" s="2">
+        <v>557</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>379</v>
@@ -9026,10 +10690,13 @@
       <c r="C558" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E558" s="2">
+        <v>558</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>381</v>
@@ -9037,21 +10704,27 @@
       <c r="C559" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="E559" s="2">
+        <v>559</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
+      </c>
+      <c r="E560" s="2">
+        <v>560</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>385</v>
@@ -9059,10 +10732,13 @@
       <c r="C561" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="E561" s="2">
+        <v>561</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>388</v>
@@ -9070,43 +10746,55 @@
       <c r="C562" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E562" s="2">
+        <v>562</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
+      </c>
+      <c r="E563" s="2">
+        <v>563</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="E564" s="2">
+        <v>564</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="E565" s="2">
+        <v>565</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>133</v>
@@ -9114,10 +10802,13 @@
       <c r="C566" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E566" s="2">
+        <v>566</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>136</v>
@@ -9125,21 +10816,27 @@
       <c r="C567" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E567" s="2">
+        <v>567</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="E568" s="2">
+        <v>568</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>140</v>
@@ -9147,10 +10844,13 @@
       <c r="C569" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E569" s="2">
+        <v>569</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>142</v>
@@ -9158,32 +10858,41 @@
       <c r="C570" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="571" s="3" customFormat="1">
-      <c r="A571" s="3" t="s">
-        <v>783</v>
+      <c r="E570" s="2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C571" s="3" t="s">
+      <c r="C571" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="572" s="3" customFormat="1">
-      <c r="A572" s="3" t="s">
-        <v>784</v>
+      <c r="E571" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C572" s="3" t="s">
+      <c r="C572" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="E572" s="2">
+        <v>572</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>150</v>
@@ -9191,10 +10900,13 @@
       <c r="C573" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E573" s="2">
+        <v>573</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>152</v>
@@ -9202,21 +10914,27 @@
       <c r="C574" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="575" s="3" customFormat="1">
-      <c r="A575" s="3" t="s">
-        <v>787</v>
+      <c r="E574" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C575" s="3" t="s">
+      <c r="C575" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="E575" s="2">
+        <v>575</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>157</v>
@@ -9224,10 +10942,13 @@
       <c r="C576" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E576" s="2">
+        <v>576</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>159</v>
@@ -9235,10 +10956,13 @@
       <c r="C577" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E577" s="2">
+        <v>577</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>161</v>
@@ -9246,10 +10970,13 @@
       <c r="C578" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E578" s="2">
+        <v>578</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>164</v>
@@ -9257,43 +10984,55 @@
       <c r="C579" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E579" s="2">
+        <v>579</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
+      </c>
+      <c r="E580" s="2">
+        <v>580</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="E581" s="2">
+        <v>581</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="E582" s="2">
+        <v>582</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>173</v>
@@ -9301,10 +11040,13 @@
       <c r="C583" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E583" s="2">
+        <v>583</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>175</v>
@@ -9312,10 +11054,13 @@
       <c r="C584" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E584" s="2">
+        <v>584</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>177</v>
@@ -9323,10 +11068,13 @@
       <c r="C585" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E585" s="2">
+        <v>585</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>179</v>
@@ -9334,10 +11082,13 @@
       <c r="C586" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E586" s="2">
+        <v>586</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>182</v>
@@ -9345,10 +11096,13 @@
       <c r="C587" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E587" s="2">
+        <v>587</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>182</v>
@@ -9356,10 +11110,13 @@
       <c r="C588" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E588" s="2">
+        <v>588</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>185</v>
@@ -9367,43 +11124,55 @@
       <c r="C589" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E589" s="2">
+        <v>589</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="E590" s="2">
+        <v>590</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="E591" s="2">
+        <v>591</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="E592" s="2">
+        <v>592</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>133</v>
@@ -9411,10 +11180,13 @@
       <c r="C593" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E593" s="2">
+        <v>593</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>136</v>
@@ -9422,21 +11194,27 @@
       <c r="C594" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E594" s="2">
+        <v>594</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="E595" s="2">
+        <v>595</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>140</v>
@@ -9444,10 +11222,13 @@
       <c r="C596" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E596" s="2">
+        <v>596</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>142</v>
@@ -9455,32 +11236,41 @@
       <c r="C597" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="598" s="3" customFormat="1">
-      <c r="A598" s="3" t="s">
-        <v>814</v>
+      <c r="E597" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C598" s="3" t="s">
+      <c r="C598" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="599" s="3" customFormat="1">
-      <c r="A599" s="3" t="s">
-        <v>815</v>
+      <c r="E598" s="2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C599" s="3" t="s">
+      <c r="C599" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="E599" s="2">
+        <v>599</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>150</v>
@@ -9488,10 +11278,13 @@
       <c r="C600" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E600" s="2">
+        <v>600</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>152</v>
@@ -9499,21 +11292,27 @@
       <c r="C601" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="602" s="3" customFormat="1">
-      <c r="A602" s="3" t="s">
-        <v>818</v>
+      <c r="E601" s="2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C602" s="3" t="s">
+      <c r="C602" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="E602" s="2">
+        <v>602</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>157</v>
@@ -9521,10 +11320,13 @@
       <c r="C603" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E603" s="2">
+        <v>603</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>159</v>
@@ -9532,10 +11334,13 @@
       <c r="C604" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E604" s="2">
+        <v>604</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B605" s="2" t="s">
         <v>161</v>
@@ -9543,10 +11348,13 @@
       <c r="C605" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E605" s="2">
+        <v>605</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>164</v>
@@ -9554,43 +11362,55 @@
       <c r="C606" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E606" s="2">
+        <v>606</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
+      </c>
+      <c r="E607" s="2">
+        <v>607</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="E608" s="2">
+        <v>608</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="E609" s="2">
+        <v>609</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>173</v>
@@ -9598,10 +11418,13 @@
       <c r="C610" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E610" s="2">
+        <v>610</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>175</v>
@@ -9609,10 +11432,13 @@
       <c r="C611" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E611" s="2">
+        <v>611</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>177</v>
@@ -9620,10 +11446,13 @@
       <c r="C612" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E612" s="2">
+        <v>612</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>179</v>
@@ -9631,10 +11460,13 @@
       <c r="C613" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E613" s="2">
+        <v>613</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B614" s="2" t="s">
         <v>182</v>
@@ -9642,10 +11474,13 @@
       <c r="C614" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E614" s="2">
+        <v>614</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B615" s="2" t="s">
         <v>182</v>
@@ -9653,10 +11488,13 @@
       <c r="C615" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E615" s="2">
+        <v>615</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B616" s="2" t="s">
         <v>185</v>
@@ -9664,38 +11502,50 @@
       <c r="C616" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E616" s="2">
+        <v>616</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="E617" s="2">
+        <v>617</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
+      </c>
+      <c r="E618" s="2">
+        <v>618</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E619" s="2">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/fp_tukayyidRT/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/fp_tukayyidRT/LocalizationDef.xlsx
@@ -2943,15 +2943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="C622" sqref="C622"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C623" sqref="C623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="81.7109375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
